--- a/Result_Analysis&Record/record.xlsx
+++ b/Result_Analysis&Record/record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0565AC-3224-45B9-A2A4-815C3F7419D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71DA613-C103-4C06-B893-8CB9BB9DF7A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sovler'adam'_validation0.1" sheetId="3" r:id="rId1"/>
@@ -14,8 +14,7 @@
     <sheet name="node+learning_rate_20x10" sheetId="9" r:id="rId4"/>
     <sheet name="M_NL" sheetId="1" r:id="rId5"/>
     <sheet name="node+learning_rate_20x14" sheetId="11" r:id="rId6"/>
-    <sheet name="feature_index-name" sheetId="10" r:id="rId7"/>
-    <sheet name="论文写作图标" sheetId="12" r:id="rId8"/>
+    <sheet name="论文写作图标" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'node+learning_rate_20x10'!$A$1:$O$201</definedName>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="231">
   <si>
     <t>Column8</t>
   </si>
@@ -679,243 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMPUTEDAIRSPEED</t>
-  </si>
-  <si>
-    <t>BAROMETRICALTITUDE</t>
-  </si>
-  <si>
-    <t>SELTDFUELFLOW1</t>
-  </si>
-  <si>
-    <t>N21</t>
-  </si>
-  <si>
-    <t>N11</t>
-  </si>
-  <si>
-    <t>MACH</t>
-  </si>
-  <si>
-    <t>SELTDEGTT4951</t>
-  </si>
-  <si>
-    <t>ENG1OILQTY</t>
-  </si>
-  <si>
-    <t>SELECTEDOILTEMP1</t>
-  </si>
-  <si>
-    <t>SELECTEDTAT1</t>
-  </si>
-  <si>
-    <t>SELECTEDTAT2</t>
-  </si>
-  <si>
-    <t>SELECTEDVBVPOSN1</t>
-  </si>
-  <si>
-    <t>SELECTEDVSVPOSN1</t>
-  </si>
-  <si>
-    <t>SELECTEDFMVPOSN1</t>
-  </si>
-  <si>
-    <t>THROTTLEANGLE1</t>
-  </si>
-  <si>
-    <t>STATICAIRTEMP</t>
-  </si>
-  <si>
-    <t>CN2HPCVIBLT</t>
-  </si>
-  <si>
-    <t>TN1LPTVIBLT</t>
-  </si>
-  <si>
-    <t>TN2HPTVIBLT</t>
-  </si>
-  <si>
-    <t>CN1FANVIBLT</t>
-  </si>
-  <si>
-    <t>STATICAIRPRESSURE</t>
-  </si>
-  <si>
-    <t>SELECTEDT31</t>
-  </si>
-  <si>
-    <t>SELECTEDT25COMP1</t>
-  </si>
-  <si>
-    <t>DeltaCoreSpeed</t>
-  </si>
-  <si>
-    <t>DeltaFuelFlow</t>
-  </si>
-  <si>
-    <t>DeltaEGT</t>
-  </si>
-  <si>
-    <t>计算空速</t>
-  </si>
-  <si>
-    <t>气压计高度</t>
-  </si>
-  <si>
-    <t>发动机1燃油流量</t>
-  </si>
-  <si>
-    <t>发动机1高压涡轮转速</t>
-  </si>
-  <si>
-    <t>飞行马赫数</t>
-  </si>
-  <si>
-    <t>发动机1排气温度</t>
-  </si>
-  <si>
-    <t>发动机1滑油质量</t>
-  </si>
-  <si>
-    <t>发动机1滑油温度</t>
-  </si>
-  <si>
-    <t>大气总温1</t>
-  </si>
-  <si>
-    <t>大气总温2</t>
-  </si>
-  <si>
-    <t>发动机1可调放气活门位置</t>
-  </si>
-  <si>
-    <t>压气机1可调静子叶片角度</t>
-  </si>
-  <si>
-    <t>发动机1燃油计量活门位置</t>
-  </si>
-  <si>
-    <t>发动机1推力杆角度</t>
-  </si>
-  <si>
-    <t>静态空气温度</t>
-  </si>
-  <si>
-    <t>左发高压压气机振动</t>
-  </si>
-  <si>
-    <t>左发低压涡轮振动</t>
-  </si>
-  <si>
-    <t>左发高压涡轮振动</t>
-  </si>
-  <si>
-    <t>左发风扇振动</t>
-  </si>
-  <si>
-    <t>静态空气压力</t>
-  </si>
-  <si>
-    <t>发动机1 高压压气机出口温度</t>
-  </si>
-  <si>
-    <t>发动机1 高压压气机进口温度</t>
-  </si>
-  <si>
-    <t>高阶变量</t>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1033,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,26 +810,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1171,22 +920,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,9 +977,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -21713,7 +21452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -21756,49 +21495,49 @@
       <c r="K1">
         <v>0.1</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="16">
+      <c r="N1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="3">
         <v>1E-4</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="3">
         <v>1E-3</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="3">
         <v>0.01</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="3">
         <v>0.02</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="3">
         <v>0.04</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="3">
         <v>0.06</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="3">
         <v>0.08</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -21836,49 +21575,49 @@
       <c r="K2">
         <v>99.564459930313603</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>10</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="3">
         <v>0.58597560975609797</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="3">
         <v>0.65322299651568005</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>0.66672473867595805</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="3">
         <v>0.65932055749128904</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="3">
         <v>0.47064459930313601</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="3">
         <v>0.50304878048780499</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="3">
         <v>0.49564459930313598</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="3">
         <v>0.36785714285714299</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="3">
         <v>0.462543554006969</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="3">
         <v>0.51088850174216005</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="3">
         <v>0.50479094076655096</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -21917,49 +21656,49 @@
         <v>0.43554006968641101</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>11</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>0.760452961672474</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="3">
         <v>0.53144599303135898</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="3">
         <v>0.42935540069686401</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>0.60339721254355405</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>0.58693379790940803</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="3">
         <v>0.45409407665505203</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="3">
         <v>0.48519163763066198</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="3">
         <v>0.37935540069686402</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="3">
         <v>0.27595818815331002</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -21997,49 +21736,49 @@
       <c r="K4">
         <v>99.564459930313603</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>12</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>0.49695121951219501</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>0.546254355400697</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="3">
         <v>0.48162020905923297</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="3">
         <v>0.54250871080139396</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>0.48606271777003501</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="3">
         <v>0.51132404181184699</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="3">
         <v>0.42177700348432101</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="3">
         <v>0.497648083623693</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="3">
         <v>0.28614982578397202</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="3">
         <v>0.22952961672473901</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="3">
         <v>0.48301393728223002</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -22077,49 +21816,49 @@
       <c r="K5">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>13</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>0.54869337979094102</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <v>0.59076655052264804</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="3">
         <v>0.47517421602787502</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>0.52770034843205604</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>0.606271777003484</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="3">
         <v>0.494773519163763</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="3">
         <v>0.52343205574912899</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="3">
         <v>0.49695121951219501</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="3">
         <v>0.527264808362369</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="3">
         <v>0.57639372822299695</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -22157,49 +21896,49 @@
       <c r="K6">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>14</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>0.35130662020905901</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <v>0.49303135888501698</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="3">
         <v>0.395383275261324</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>0.520383275261324</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="3">
         <v>0.47360627177700398</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>0.52047038327526096</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="3">
         <v>0.51132404181184699</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="3">
         <v>0.37047038327526099</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="3">
         <v>0.36959930313588901</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="3">
         <v>0.51698606271777003</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -22237,49 +21976,49 @@
       <c r="K7">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>15</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <v>0.41228222996515701</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="3">
         <v>0.38571428571428601</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>0.49259581881533099</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="3">
         <v>0.50940766550522698</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>0.50479094076655096</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="3">
         <v>0.44207317073170699</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="3">
         <v>0.43135888501742198</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="3">
         <v>0.50792682926829302</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="3">
         <v>0.64721254355400704</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="3">
         <v>0.38501742160278701</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -22317,49 +22056,49 @@
       <c r="K8">
         <v>98.170731707317103</v>
       </c>
-      <c r="N8" s="5">
-        <v>16</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="3">
+        <v>16</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>0.36611498257839697</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>0.398954703832753</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="3">
         <v>0.49564459930313598</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>0.49729965156794398</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="3">
         <v>0.49433797909407701</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="3">
         <v>0.50435540069686402</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="3">
         <v>0.44468641114982599</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="3">
         <v>0.73867595818815301</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="3">
         <v>0.68423344947735198</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="3">
         <v>0.49085365853658502</v>
       </c>
     </row>
@@ -22397,49 +22136,49 @@
       <c r="K9">
         <v>99.564459930313603</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>17</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>0.44041811846689899</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>0.47526132404181198</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="3">
         <v>0.47256097560975602</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="3">
         <v>0.47038327526132401</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>0.53162020905923402</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="3">
         <v>0.50261324041811895</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="3">
         <v>0.39930313588850203</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="3">
         <v>0.483623693379791</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="3">
         <v>0.30540069686411198</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB9" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -22477,49 +22216,49 @@
       <c r="K10">
         <v>99.564459930313603</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>18</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>0.44059233449477297</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="3">
         <v>0.205400696864112</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="3">
         <v>0.57778745644599305</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>0.47691637630661998</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="3">
         <v>0.26681184668989499</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>0.45191637630662002</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="3">
         <v>0.49564459930313598</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="3">
         <v>0.47099303135888498</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="3">
         <v>0.42186411149825798</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="3">
         <v>0.25217770034843201</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -22557,49 +22296,49 @@
       <c r="K11">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>19</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="3">
         <v>0.37979094076655101</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="3">
         <v>0.36271777003484301</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="3">
         <v>0.32099303135888502</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="3">
         <v>0.50391986062717797</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="3">
         <v>0.49564459930313598</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="3">
         <v>0.51611498257839705</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="3">
         <v>0.46515679442508701</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="3">
         <v>0.428135888501742</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="3">
         <v>0.34216027874564497</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="3">
         <v>0.49520905923344999</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -22637,49 +22376,49 @@
       <c r="K12">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>20</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>0.55740418118466895</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="3">
         <v>0.58353658536585395</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="3">
         <v>0.67151567944250901</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>0.64320557491289199</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="3">
         <v>0.505226480836237</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="3">
         <v>0.45148083623693402</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="3">
         <v>0.49041811846689898</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="3">
         <v>0.49564459930313598</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="3">
         <v>0.46263066202090602</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="3">
         <v>0.61332752613240404</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="3">
         <v>0.50435540069686402</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -22717,49 +22456,49 @@
       <c r="K13">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>21</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>0.75827526132404199</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>0.53536585365853695</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="3">
         <v>0.48824041811846702</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="3">
         <v>0.54033101045296195</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="3">
         <v>0.49346689895470403</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="3">
         <v>0.50635888501742199</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="3">
         <v>0.49651567944250902</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="3">
         <v>0.42073170731707299</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="3">
         <v>0.423606271777004</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="3">
         <v>0.65113240418118501</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AB13" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -22797,49 +22536,49 @@
       <c r="K14">
         <v>99.564459930313603</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>22</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>0.30496515679442499</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="3">
         <v>0.35810104529616699</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="3">
         <v>0.28101045296167299</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="3">
         <v>0.518728222996516</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="3">
         <v>0.497386759581882</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="3">
         <v>0.510452961672474</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="3">
         <v>0.497386759581882</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="3">
         <v>0.36376306620209098</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="3">
         <v>0.40722996515679399</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AA14" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -22877,49 +22616,49 @@
       <c r="K15">
         <v>99.564459930313603</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>23</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>0.57604529616724698</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <v>0.49111498257839697</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="3">
         <v>0.45095818815331001</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="3">
         <v>0.44486062717769997</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="3">
         <v>0.48693379790940799</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="3">
         <v>0.48736933797909399</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="3">
         <v>0.47334494773519198</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="3">
         <v>0.52186411149825795</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="3">
         <v>0.40601045296167299</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -22957,49 +22696,49 @@
       <c r="K16">
         <v>99.564459930313603</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>24</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="3">
         <v>0.48283972125435498</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="3">
         <v>0.41611498257839702</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="3">
         <v>0.49041811846689898</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="3">
         <v>0.338937282229965</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="3">
         <v>0.49259581881533099</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16" s="3">
         <v>0.497386759581882</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="3">
         <v>0.50783972125435495</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="3">
         <v>0.25914634146341498</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="3">
         <v>0.40383275261323998</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="3">
         <v>0.47282229965156802</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA16" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -23037,49 +22776,49 @@
       <c r="K17">
         <v>99.564459930313603</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>25</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="3">
         <v>0.47656794425087101</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="3">
         <v>0.46263066202090602</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="3">
         <v>0.49172473867595801</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="3">
         <v>0.47909407665505199</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="3">
         <v>0.49695121951219501</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="3">
         <v>0.39851916376306601</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="3">
         <v>0.49172473867595801</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="3">
         <v>0.31297909407665497</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="3">
         <v>0.36437282229965201</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="3">
         <v>0.49782229965156799</v>
       </c>
     </row>
@@ -23117,49 +22856,49 @@
       <c r="K18">
         <v>99.477351916376307</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>26</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>0.49433797909407701</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="3">
         <v>0.30513937282230003</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="3">
         <v>0.50810104529616695</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="3">
         <v>0.46602787456445999</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="3">
         <v>0.42918118466899002</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="3">
         <v>0.48519163763066198</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="3">
         <v>0.45235191637630701</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="3">
         <v>0.49651567944250902</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="3">
         <v>0.50958188153310102</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="3">
         <v>0.41655052264808401</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="3">
         <v>0.43867595818815303</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="3">
         <v>0.64721254355400704</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="3">
         <v>0.497386759581882</v>
       </c>
     </row>
@@ -23197,49 +22936,49 @@
       <c r="K19">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <v>27</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="3">
         <v>0.592247386759582</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="3">
         <v>0.48170731707317099</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="3">
         <v>0.60243902439024399</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="3">
         <v>0.74059233449477402</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="3">
         <v>0.56594076655052294</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="3">
         <v>0.42613240418118498</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="3">
         <v>0.58832752613240402</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="3">
         <v>0.31036585365853703</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="3">
         <v>0.45862369337979098</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="3">
         <v>0.505226480836237</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -23277,49 +23016,49 @@
       <c r="K20">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>28</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="3">
         <v>0.32099303135888502</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="3">
         <v>0.31742160278745601</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="3">
         <v>0.42961672473867601</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="3">
         <v>0.50261324041811895</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="3">
         <v>0.49259581881533099</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="3">
         <v>0.43135888501742198</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="3">
         <v>0.49433797909407701</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="3">
         <v>0.49651567944250902</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" s="3">
         <v>0.47717770034843199</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="3">
         <v>0.462543554006969</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="3">
         <v>0.47256097560975602</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
@@ -23357,55 +23096,55 @@
       <c r="K21">
         <v>0.43554006968641101</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>29</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>0.48824041811846702</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="3">
         <v>0.423867595818815</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="3">
         <v>0.43623693379790901</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="3">
         <v>0.48824041811846702</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="3">
         <v>0.48998257839721299</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="3">
         <v>0.49390243902439002</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="3">
         <v>0.37709059233449499</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="3">
         <v>0.49346689895470403</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="3">
         <v>0.34982578397212499</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="3">
         <v>0.36132404181184702</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="Z21" s="3">
         <v>0.49782229965156799</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="3">
         <v>0.50217770034843201</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AB21" s="3">
         <v>0.50217770034843201</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N22" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="O22">
         <f>MAX(O2:O21)</f>
@@ -36710,327 +36449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CB82D-18D9-4E8F-8526-84037E8A1AC7}">
-  <dimension ref="B1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909FA0ED-40B9-448A-AD6E-D0720DFCBCDB}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -37043,162 +36466,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>305</v>
+      <c r="B2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="5">
         <v>3809</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>26</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="10">
         <v>0.99218499999999998</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>0.5</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="J3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>0.19</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="11">
         <v>7.8150000000000008E-3</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>0.5</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
+      <c r="J4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.7</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.81</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>307</v>
+      <c r="J5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="11">
         <v>0.3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>0.3</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="J6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L6" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J7" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="K7" s="20" t="s">
+      <c r="J7" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="J8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="15">
         <v>1E-4</v>
       </c>
     </row>
